--- a/docs/ja/images/Fig_(ja).xlsx
+++ b/docs/ja/images/Fig_(ja).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\y_tam\Source\repos\DriveIndicatorAI\docs\ja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\y_tam\Source\repos\DriveIndicatorAI\docs\ja\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745DC638-DAAE-4FD1-810F-C012F598EB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F600B4A-6F59-4158-9B74-C1C7C1396F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1990" yWindow="1060" windowWidth="18900" windowHeight="19160" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
+    <workbookView xWindow="19420" yWindow="920" windowWidth="18900" windowHeight="19160" firstSheet="4" activeTab="7" xr2:uid="{FB9A8455-10B9-4C5A-A404-5A08B8145D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_(ja)_1.4" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,19 @@
     <sheet name="Fig_(ja)_2.2" sheetId="7" r:id="rId3"/>
     <sheet name="Fig_(ja)_2.3" sheetId="8" r:id="rId4"/>
     <sheet name="Fig_(ja)_5.2.3" sheetId="9" r:id="rId5"/>
-    <sheet name="Fig_(ja)_7.2" sheetId="10" r:id="rId6"/>
+    <sheet name="Fig_(ja)_6.1" sheetId="11" r:id="rId6"/>
+    <sheet name="Fig_(ja)_7.2" sheetId="10" r:id="rId7"/>
+    <sheet name="Fig_(en)_12.7" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Fig_(en)_12.7'!$A$1:$AR$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Fig_(ja)_1.4'!$A$1:$U$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Fig_(ja)_2.1'!$A$1:$P$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Fig_(ja)_2.2'!$A$1:$AB$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Fig_(ja)_2.3'!$A$1:$R$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Fig_(ja)_5.2.3'!$A$1:$Q$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Fig_(ja)_7.2'!$A$1:$S$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Fig_(ja)_6.1'!$A$1:$Q$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Fig_(ja)_7.2'!$A$1:$S$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="79">
   <si>
     <t>SettingsManager</t>
     <phoneticPr fontId="1"/>
@@ -392,6 +396,142 @@
     <rPh sb="54" eb="56">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">96 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">120 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">144 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">192 DPI </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200 %</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコンサイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W16×H16 ドット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W32×H32 ドット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETW が使えない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAMドライブの相性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PerformanceCounter の制限 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高 DPI の制約</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクスケジューラー無効</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限制限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリシー / セキュリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品ごとの実装差</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows の仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinForms の仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業環境の制限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティ設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影響</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAMドライブ監視不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I/O が取得できない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一部ドライブが監視不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画が不安定になる場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動実行不可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ / 監視が動作しない</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,7 +573,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -670,13 +810,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +1000,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2508,7 +2715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0212CC2-519E-40D4-BA69-226909DD7235}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3674,6 +3881,157 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EE7D11-33C6-45B1-BD60-EFD1F00579D9}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="3.08203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+    </row>
+    <row r="4" spans="1:17" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+    </row>
+    <row r="5" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
+      <c r="Q9" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J6:O6"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E783DB97-F02D-46A7-9A54-65EA40D557D5}">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -3769,4 +4127,394 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D645E2A-E50D-4DCD-9DFA-4EA87141315D}">
+  <dimension ref="A1:AR11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="15" width="3.08203125" style="1"/>
+    <col min="16" max="16" width="3.08203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="3.08203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2"/>
+      <c r="AR1" s="3"/>
+    </row>
+    <row r="2" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+    </row>
+    <row r="4" spans="1:44" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+    </row>
+    <row r="5" spans="1:44" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+    </row>
+    <row r="6" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C6" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+    </row>
+    <row r="7" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+    </row>
+    <row r="8" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C8" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+    </row>
+    <row r="9" spans="1:44" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4"/>
+      <c r="AR11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="N9:AB9"/>
+    <mergeCell ref="AC9:AP9"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="N7:AB7"/>
+    <mergeCell ref="AC7:AP7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="N8:AB8"/>
+    <mergeCell ref="AC8:AP8"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="N5:AB5"/>
+    <mergeCell ref="AC5:AP5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="N6:AB6"/>
+    <mergeCell ref="AC6:AP6"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="N3:AB3"/>
+    <mergeCell ref="AC3:AP3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="N4:AB4"/>
+    <mergeCell ref="AC4:AP4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>